--- a/90_10_data_training_FID_FAIRNESS_visualisation.png.xlsx
+++ b/90_10_data_training_FID_FAIRNESS_visualisation.png.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\fairgen_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3FF183-DB2F-4418-8CA9-F6EE403CB2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9023C4-4DFC-48A5-9438-0F955C026479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{B315E13C-8654-453D-AE2E-E11B075A86DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="6" activeTab="12" xr2:uid="{B315E13C-8654-453D-AE2E-E11B075A86DF}"/>
   </bookViews>
   <sheets>
     <sheet name="1_64" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Toy_data_class2" sheetId="10" r:id="rId9"/>
     <sheet name="Toy_data_class4" sheetId="12" r:id="rId10"/>
     <sheet name="Real_Data" sheetId="11" r:id="rId11"/>
+    <sheet name="Robustness-samples size" sheetId="14" r:id="rId12"/>
+    <sheet name="Robustness-Classes" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>FID</t>
   </si>
@@ -91,6 +93,24 @@
   </si>
   <si>
     <t>Std</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Sampme=1000</t>
+  </si>
+  <si>
+    <t>Samples=5000</t>
+  </si>
+  <si>
+    <t>Samples=2500</t>
+  </si>
+  <si>
+    <t>5 Classes</t>
+  </si>
+  <si>
+    <t>10 Classes</t>
   </si>
 </sst>
 </file>
@@ -6033,6 +6053,1538 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fair</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>ness Metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robustness-samples size'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sampme=1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Robustness-samples size'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robustness-samples size'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.23722886537107701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15021725906712199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13108491999204999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115138931097957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16022227491337901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.152340745102089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18515101985234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37812496460702499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.316250017923209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.424264298256533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84255166921290403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63790559688022197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80291162860885701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4961040182501999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.08231376782897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3275239766295499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2951799170095999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9946260697012601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-493D-4475-9D0E-A4CE21746A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robustness-samples size'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Samples=5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robustness-samples size'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.107112240655634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08816761039205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95146909256001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46693557605395E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1404125635468398E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6587377531582804E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105259246917216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15342320760160799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25475033285628701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32470357260288102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41152572215997102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58012126294090205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67143591045044104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82416788855186696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.10510261188726</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.19043993775938</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4589153910578101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.96849615784716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-493D-4475-9D0E-A4CE21746A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robustness-samples size'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Samples=2500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Robustness-samples size'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.14481882353321701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3481509485633099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6782460854698499E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9520129960465703E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3244108092024904E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9678943715527995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.122214478957253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.227918322836655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23835385277864601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32232313422578202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54178316039593999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54966041992720804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67978464614301404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99270306486463999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.02345643528468</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.22263813246499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7577669021429001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.76858390655964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-493D-4475-9D0E-A4CE21746A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1255348063"/>
+        <c:axId val="1173027711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1255348063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Perc</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Minor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173027711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1173027711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FID-Fair</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255348063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fairness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mertic</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robustness-Classes'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Robustness-Classes'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Robustness-Classes'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5169999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D43-4B60-B97A-1EF38D45D05E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Robustness-Classes'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Robustness-Classes'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Robustness-Classes'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6739999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D43-4B60-B97A-1EF38D45D05E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="836099696"/>
+        <c:axId val="840013344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="836099696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>perc minor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840013344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="840013344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FID_fair</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836099696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -12248,6 +13800,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16141,6 +17773,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -20369,6 +23020,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3BE12C-E985-44F6-B280-699EF13A42C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB7EE6-FF4A-4BD7-BDD1-75DCB5D7BD17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53754F45-C8FE-4383-81F9-2A5D2E4345DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22906,6 +25639,526 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C44D4C7-71B0-4D43-8FEF-6F76DB96A8CB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.23722886537107701</v>
+      </c>
+      <c r="C2">
+        <v>0.14481882353321701</v>
+      </c>
+      <c r="D2">
+        <v>0.107112240655634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
+      <c r="B3">
+        <v>0.15021725906712199</v>
+      </c>
+      <c r="C3">
+        <v>8.3481509485633099E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.08816761039205E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.13108491999204999</v>
+      </c>
+      <c r="C4">
+        <v>5.6782460854698499E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.95146909256001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.115138931097957</v>
+      </c>
+      <c r="C5">
+        <v>4.9520129960465703E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.46693557605395E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>0.16022227491337901</v>
+      </c>
+      <c r="C6">
+        <v>7.3244108092024904E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.1404125635468398E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
+      <c r="B7">
+        <v>0.152340745102089</v>
+      </c>
+      <c r="C7">
+        <v>8.9678943715527995E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.6587377531582804E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>0.18515101985234</v>
+      </c>
+      <c r="C8">
+        <v>0.122214478957253</v>
+      </c>
+      <c r="D8">
+        <v>0.105259246917216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.45</v>
+      </c>
+      <c r="B9">
+        <v>0.37812496460702499</v>
+      </c>
+      <c r="C9">
+        <v>0.227918322836655</v>
+      </c>
+      <c r="D9">
+        <v>0.15342320760160799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>0.316250017923209</v>
+      </c>
+      <c r="C10">
+        <v>0.23835385277864601</v>
+      </c>
+      <c r="D10">
+        <v>0.25475033285628701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B11">
+        <v>0.424264298256533</v>
+      </c>
+      <c r="C11">
+        <v>0.32232313422578202</v>
+      </c>
+      <c r="D11">
+        <v>0.32470357260288102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12">
+        <v>0.84255166921290403</v>
+      </c>
+      <c r="C12">
+        <v>0.54178316039593999</v>
+      </c>
+      <c r="D12">
+        <v>0.41152572215997102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.65</v>
+      </c>
+      <c r="B13">
+        <v>0.63790559688022197</v>
+      </c>
+      <c r="C13">
+        <v>0.54966041992720804</v>
+      </c>
+      <c r="D13">
+        <v>0.58012126294090205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.7</v>
+      </c>
+      <c r="B14">
+        <v>0.80291162860885701</v>
+      </c>
+      <c r="C14">
+        <v>0.67978464614301404</v>
+      </c>
+      <c r="D14">
+        <v>0.67143591045044104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.75</v>
+      </c>
+      <c r="B15">
+        <v>1.4961040182501999</v>
+      </c>
+      <c r="C15">
+        <v>0.99270306486463999</v>
+      </c>
+      <c r="D15">
+        <v>0.82416788855186696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.8</v>
+      </c>
+      <c r="B16">
+        <v>1.08231376782897</v>
+      </c>
+      <c r="C16">
+        <v>1.02345643528468</v>
+      </c>
+      <c r="D16">
+        <v>1.10510261188726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.85</v>
+      </c>
+      <c r="B17">
+        <v>1.3275239766295499</v>
+      </c>
+      <c r="C17">
+        <v>1.22263813246499</v>
+      </c>
+      <c r="D17">
+        <v>1.19043993775938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.9</v>
+      </c>
+      <c r="B18">
+        <v>2.2951799170095999</v>
+      </c>
+      <c r="C18">
+        <v>1.7577669021429001</v>
+      </c>
+      <c r="D18">
+        <v>1.4589153910578101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.95</v>
+      </c>
+      <c r="B19">
+        <v>1.9946260697012601</v>
+      </c>
+      <c r="C19">
+        <v>1.76858390655964</v>
+      </c>
+      <c r="D19">
+        <v>1.96849615784716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCE732-F98C-4B76-8F2C-A57C0124A388}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>4.6869281711383999E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.1065887245239299E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(B2,3)</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(C2,3)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>1.14239886864897E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.8217007435516502E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H10" si="0">ROUND(B3,3)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>4.8138337467337401E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.122456155759171</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.140259135514535</v>
+      </c>
+      <c r="C5">
+        <v>0.233999791843368</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0.29081713165671602</v>
+      </c>
+      <c r="C6">
+        <v>0.406322760602712</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>0.49520003750456998</v>
+      </c>
+      <c r="C7">
+        <v>0.64000201164452197</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0.75084278447085895</v>
+      </c>
+      <c r="C8">
+        <v>0.90729738267684501</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.751</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>1.1020592463343399</v>
+      </c>
+      <c r="C9">
+        <v>1.25989213441331</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>1.51712725374919</v>
+      </c>
+      <c r="C10">
+        <v>1.6735446132519201</v>
+      </c>
+      <c r="F10">
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.6739999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAA2CF-ABB6-4C49-858B-6FF4210E2155}">
   <dimension ref="A1:C112"/>
@@ -27286,7 +30539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22717001-5660-42B1-A9D4-2735E0F79883}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
